--- a/xlsx/精英政治_intext.xlsx
+++ b/xlsx/精英政治_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="197">
   <si>
     <t>精英政治</t>
   </si>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%AB%94</t>
   </si>
   <si>
-    <t>政體</t>
+    <t>政体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%AD%B0%E6%B0%91%E4%B8%BB%E5%88%B6</t>
   </si>
   <si>
-    <t>代議民主制</t>
+    <t>代议民主制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%AC%8A%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>金權政治</t>
+    <t>金权政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%8B%E9%98%80%E6%94%BF%E6%B2%BB</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%AC%8A%E6%94%BF%E9%AB%94</t>
   </si>
   <si>
-    <t>威權政體</t>
+    <t>威权政体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81</t>
@@ -161,19 +161,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%AC%8A%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>威權主義</t>
+    <t>威权主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%88%B6</t>
   </si>
   <si>
-    <t>專制</t>
+    <t>专制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%88%B6%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>專制主義</t>
+    <t>专制主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81%E6%94%BF%E4%BD%93</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E7%8D%A8%E8%A3%81</t>
   </si>
   <si>
-    <t>軍事獨裁</t>
+    <t>军事独裁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%81%E6%9D%83%E4%B8%BB%E4%B9%89</t>
@@ -197,19 +197,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>軍國主義</t>
+    <t>军国主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>無政府</t>
+    <t>无政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E6%B0%91%E4%B8%BB%E7%8B%80%E6%85%8B</t>
   </si>
   <si>
-    <t>半民主狀態</t>
+    <t>半民主状态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A4%E5%AE%98%E7%BB%9F%E6%B2%BB</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E6%AC%8A%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>神權政治</t>
+    <t>神权政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E4%BA%BA%E6%94%BF%E6%B2%BB</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>綠色政治</t>
+    <t>绿色政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Forms_of_government</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%B5%E8%AA%9E</t>
   </si>
   <si>
-    <t>粵語</t>
+    <t>粤语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AF%AD</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治哲學</t>
+    <t>政治哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%94%E5%AD%90</t>
@@ -377,9 +377,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E8%88%89</t>
   </si>
   <si>
-    <t>科舉</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Princeton_University</t>
   </si>
   <si>
@@ -413,13 +410,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>美國聯邦政府</t>
+    <t>美国联邦政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%B5%E5%AE%98%E5%88%B6</t>
   </si>
   <si>
-    <t>獵官制</t>
+    <t>猎官制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%AD%E5%BE%B7%E5%B0%94%E9%A1%BF%E6%B3%95%E6%A1%88</t>
@@ -551,7 +548,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%94%BF%E6%B2%BB</t>
@@ -563,7 +560,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>英國政治</t>
+    <t>英国政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1%E6%94%BF%E6%B2%BB</t>
@@ -575,9 +572,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E9%81%94%E7%88%BE%E6%96%87%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社會達爾文主義</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E8%8B%B1%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
@@ -587,13 +581,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E7%AD%89%E6%A9%9F%E6%9C%83</t>
   </si>
   <si>
-    <t>平等機會</t>
+    <t>平等机会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E6%B5%81%E5%8B%95</t>
   </si>
   <si>
-    <t>社會流動</t>
+    <t>社会流动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%93%E5%AE%B6%E7%BB%9F%E6%B2%BB</t>
@@ -2722,7 +2716,7 @@
         <v>119</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -2748,10 +2742,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2777,10 +2771,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>3</v>
@@ -2806,10 +2800,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>4</v>
@@ -2835,10 +2829,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2864,10 +2858,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>4</v>
@@ -2893,10 +2887,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -2922,10 +2916,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -2951,10 +2945,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2980,10 +2974,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3009,10 +3003,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3038,10 +3032,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>17</v>
@@ -3067,10 +3061,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>19</v>
@@ -3096,10 +3090,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3125,10 +3119,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3154,10 +3148,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>5</v>
@@ -3183,10 +3177,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>5</v>
@@ -3212,10 +3206,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" t="s">
         <v>153</v>
-      </c>
-      <c r="F78" t="s">
-        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>3</v>
@@ -3241,10 +3235,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
         <v>155</v>
-      </c>
-      <c r="F79" t="s">
-        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3270,10 +3264,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" t="s">
         <v>157</v>
-      </c>
-      <c r="F80" t="s">
-        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3299,10 +3293,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3328,10 +3322,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -3357,10 +3351,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3386,10 +3380,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3415,10 +3409,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" t="s">
         <v>167</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3444,10 +3438,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>4</v>
@@ -3473,10 +3467,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -3502,10 +3496,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -3531,10 +3525,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3560,10 +3554,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3589,10 +3583,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3618,10 +3612,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3647,10 +3641,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3676,10 +3670,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3705,10 +3699,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3734,10 +3728,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3792,10 +3786,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3821,10 +3815,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3850,10 +3844,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -3879,10 +3873,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
